--- a/dir_GRUPOS4.xlsx
+++ b/dir_GRUPOS4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525C1BEF-2979-411F-9D4D-9B850EB4446C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A824F4F5-99A8-48C5-99AD-5A5C1B1CAF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21D9B7C5-D5F1-4C17-AD76-F2BA48931FF2}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
     <t>GRUPO4</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Servicios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Categoría</t>
   </si>
 </sst>
 </file>
@@ -915,7 +915,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -925,42 +925,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/dir_GRUPOS4.xlsx
+++ b/dir_GRUPOS4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A824F4F5-99A8-48C5-99AD-5A5C1B1CAF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC12234B-190A-490D-A69B-BD542C8D9141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21D9B7C5-D5F1-4C17-AD76-F2BA48931FF2}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>Servicios</t>
   </si>
   <si>
-    <t xml:space="preserve">	Categoría</t>
+    <t>Categoría</t>
   </si>
 </sst>
 </file>

--- a/dir_GRUPOS4.xlsx
+++ b/dir_GRUPOS4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC12234B-190A-490D-A69B-BD542C8D9141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663A356D-1B71-467A-8C36-C6AA5FD975EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21D9B7C5-D5F1-4C17-AD76-F2BA48931FF2}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>GRUPO4</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Categoría</t>
+  </si>
+  <si>
+    <t>GRUPOS4</t>
   </si>
 </sst>
 </file>
@@ -914,9 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77997886-12EA-47C2-AF4E-4559AD86DA82}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -925,42 +923,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dir_GRUPOS4.xlsx
+++ b/dir_GRUPOS4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\Directorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663A356D-1B71-467A-8C36-C6AA5FD975EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920D7F2-0143-46D8-898C-EB89CE2A3D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21D9B7C5-D5F1-4C17-AD76-F2BA48931FF2}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>Categoría</t>
   </si>
   <si>
-    <t>GRUPOS4</t>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -534,9 +534,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,18 +917,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77997886-12EA-47C2-AF4E-4559AD86DA82}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
